--- a/Results/experiments_31.01.20 .xlsx
+++ b/Results/experiments_31.01.20 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitabelyak/Dropbox (Aalto)/p_Lagrangian_Decomposition-/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5021D-D56F-1640-8547-2EFCF97DFBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3C2159-AA3E-F943-B2CC-DD11AC0BA894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-2320" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{000EF757-7196-F84B-A147-3AD3108156B7}"/>
+    <workbookView xWindow="33600" yWindow="-2320" windowWidth="38400" windowHeight="24000" xr2:uid="{000EF757-7196-F84B-A147-3AD3108156B7}"/>
   </bookViews>
   <sheets>
     <sheet name="1 iteration comparison " sheetId="1" r:id="rId1"/>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745CCC28-59EF-6B49-984A-45748D169B11}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="170" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="170" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1222,11 +1222,11 @@
         <v>25</v>
       </c>
       <c r="F32">
-        <f>(D32-C32)/C32</f>
+        <f t="shared" ref="F32:F40" si="3">(D32-C32)/C32</f>
         <v>2.0748056862408793E-6</v>
       </c>
       <c r="G32">
-        <f>(D32-B32)/B32</f>
+        <f t="shared" ref="G32:G40" si="4">(D32-B32)/B32</f>
         <v>4.101657013817529E-6</v>
       </c>
     </row>
@@ -1247,11 +1247,11 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <f>(D33-C33)/C33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>(D33-B33)/B33</f>
+        <f t="shared" si="4"/>
         <v>3.2925270915726263E-4</v>
       </c>
     </row>
@@ -1272,11 +1272,11 @@
         <v>21</v>
       </c>
       <c r="F34">
-        <f>(D34-C34)/C34</f>
+        <f t="shared" si="3"/>
         <v>-2.1614221259979048E-16</v>
       </c>
       <c r="G34">
-        <f>(D34-B34)/B34</f>
+        <f t="shared" si="4"/>
         <v>2.2298156347004655E-4</v>
       </c>
     </row>
@@ -1297,11 +1297,11 @@
         <v>97</v>
       </c>
       <c r="F35">
-        <f>(D35-C35)/C35</f>
+        <f t="shared" si="3"/>
         <v>4.3180244355609833E-5</v>
       </c>
       <c r="G35">
-        <f>(D35-B35)/B35</f>
+        <f t="shared" si="4"/>
         <v>1.9986136997267629E-4</v>
       </c>
     </row>
@@ -1322,11 +1322,11 @@
         <v>88</v>
       </c>
       <c r="F36">
-        <f>(D36-C36)/C36</f>
+        <f t="shared" si="3"/>
         <v>7.5447969722813104E-6</v>
       </c>
       <c r="G36">
-        <f>(D36-B36)/B36</f>
+        <f t="shared" si="4"/>
         <v>1.9613856395390503E-4</v>
       </c>
     </row>
@@ -1347,11 +1347,11 @@
         <v>95</v>
       </c>
       <c r="F37">
-        <f>(D37-C37)/C37</f>
+        <f t="shared" si="3"/>
         <v>3.2313862462381827E-5</v>
       </c>
       <c r="G37">
-        <f>(D37-B37)/B37</f>
+        <f t="shared" si="4"/>
         <v>2.1957492380581477E-4</v>
       </c>
     </row>
@@ -1372,11 +1372,11 @@
         <v>28</v>
       </c>
       <c r="F38">
-        <f>(D38-C38)/C38</f>
+        <f t="shared" si="3"/>
         <v>1.2861056592234746E-5</v>
       </c>
       <c r="G38">
-        <f>(D38-B38)/B38</f>
+        <f t="shared" si="4"/>
         <v>3.4115357781266432E-4</v>
       </c>
     </row>
@@ -1397,11 +1397,11 @@
         <v>44</v>
       </c>
       <c r="F39" s="7">
-        <f>(D39-C39)/C39</f>
+        <f t="shared" si="3"/>
         <v>2.2352992046171535E-5</v>
       </c>
       <c r="G39" s="7">
-        <f>(D39-B39)/B39</f>
+        <f t="shared" si="4"/>
         <v>3.920764951190561E-4</v>
       </c>
     </row>
@@ -1422,11 +1422,11 @@
         <v>42</v>
       </c>
       <c r="F40" s="7">
-        <f>(D40-C40)/C40</f>
+        <f t="shared" si="3"/>
         <v>4.7698651629029257E-4</v>
       </c>
       <c r="G40" s="7">
-        <f>(D40-B40)/B40</f>
+        <f t="shared" si="4"/>
         <v>1.2737773181964659E-3</v>
       </c>
     </row>
@@ -1447,11 +1447,11 @@
         <v>32</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" ref="F41:F49" si="3">(D41-C41)/C41</f>
+        <f t="shared" ref="F41:F49" si="5">(D41-C41)/C41</f>
         <v>3.5499587141278034E-5</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" ref="G41:G49" si="4">(D41-B41)/B41</f>
+        <f t="shared" ref="G41:G49" si="6">(D41-B41)/B41</f>
         <v>4.4505687492467876E-4</v>
       </c>
     </row>
@@ -1472,11 +1472,11 @@
         <v>34</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.2979688601002317E-5</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5437917001169606E-4</v>
       </c>
     </row>
@@ -1497,11 +1497,11 @@
         <v>34</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1309746017139121E-4</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.132133874053489E-4</v>
       </c>
     </row>
@@ -1522,11 +1522,11 @@
         <v>31</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.8427630841489723E-5</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.8034394737116691E-4</v>
       </c>
     </row>
@@ -1547,11 +1547,11 @@
         <v>36</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.1619095368082943E-5</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.1240092863185164E-4</v>
       </c>
     </row>
@@ -1572,11 +1572,11 @@
         <v>36</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6607299367290566E-3</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0958272768360079E-3</v>
       </c>
     </row>
@@ -1597,11 +1597,11 @@
         <v>41</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0858023807351373E-3</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5356246233517762E-3</v>
       </c>
     </row>
@@ -1622,11 +1622,11 @@
         <v>30</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4150595816583987E-3</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8454262806385179E-3</v>
       </c>
     </row>
@@ -1647,11 +1647,11 @@
         <v>34</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.7640419108572911E-4</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3674896681023353E-3</v>
       </c>
     </row>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDA9C04-3459-B74A-8926-6A4B101BF69A}">
   <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A18" zoomScale="160" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
